--- a/biology/Histoire de la zoologie et de la botanique/Louis_Dollo/Louis_Dollo.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Dollo/Louis_Dollo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Antoine Marie Joseph Dollo, né à Lille le 7 décembre 1857 et mort à Bruxelles le 19 avril 1931, est un paléontologue belge d'origine française, connu pour ses travaux sur les dinosaures et pour son hypothèse sur la nature irréversible de l'évolution. Il établit les principes de la paléobiologie.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études d'ingénieur à l'Institut industriel du Nord (École centrale de Lille) d'où il sort major de la promotion 1877[1], il commence sa carrière dans l'industrie des mines. Pendant trois ans à partir de 1878, il supervise l'extraction, à 321 m de profondeur dans une mine de charbon à la frontière franco-belge, des célèbres iguanodons de Bernissart[2]. Il se consacre d'abord à leur étude comme une passion scientifique en parallèle de son métier d'ingénieur[3] (il devient aide naturaliste au muséum royal de l'histoire naturelle à Bruxelles), puis s'installe en Belgique et en fait son activité principale à partir de 1882. Il est lauréat de la Société des sciences de Lille et de la Société géologique de Londres.
-Entre 1882 et 1885, alors qu'il est conservateur de la section des vertébrés fossiles de l’Institut royal des sciences naturelles de Belgique, il travaille à la reconstitution[4] des squelettes de ces dinosaures, qu’il fait monter dressés sur leurs pattes postérieures. Le premier est assemblé à l'intérieur d'une église désaffectée servant d'atelier au Muséum des sciences naturelles de Belgique. Une dizaine de ces squelettes constitue dès lors la principale attraction du musée. Il devient conservateur du Muséum des sciences naturelles de Belgique en 1891[5]. Il coopère avec son ancien professeur Alfred Giard et la station marine de Wimereux (université Lille Nord de France).
-Vers 1890, il formule une hypothèse sur la nature irréversible de l'évolution, connue plus tard sous le nom de « loi de Dollo », selon laquelle une structure ou un organe perdu ou abandonné au cours de l'évolution ne saurait réapparaître au sein d'une même lignée d'organismes[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études d'ingénieur à l'Institut industriel du Nord (École centrale de Lille) d'où il sort major de la promotion 1877, il commence sa carrière dans l'industrie des mines. Pendant trois ans à partir de 1878, il supervise l'extraction, à 321 m de profondeur dans une mine de charbon à la frontière franco-belge, des célèbres iguanodons de Bernissart. Il se consacre d'abord à leur étude comme une passion scientifique en parallèle de son métier d'ingénieur (il devient aide naturaliste au muséum royal de l'histoire naturelle à Bruxelles), puis s'installe en Belgique et en fait son activité principale à partir de 1882. Il est lauréat de la Société des sciences de Lille et de la Société géologique de Londres.
+Entre 1882 et 1885, alors qu'il est conservateur de la section des vertébrés fossiles de l’Institut royal des sciences naturelles de Belgique, il travaille à la reconstitution des squelettes de ces dinosaures, qu’il fait monter dressés sur leurs pattes postérieures. Le premier est assemblé à l'intérieur d'une église désaffectée servant d'atelier au Muséum des sciences naturelles de Belgique. Une dizaine de ces squelettes constitue dès lors la principale attraction du musée. Il devient conservateur du Muséum des sciences naturelles de Belgique en 1891. Il coopère avec son ancien professeur Alfred Giard et la station marine de Wimereux (université Lille Nord de France).
+Vers 1890, il formule une hypothèse sur la nature irréversible de l'évolution, connue plus tard sous le nom de « loi de Dollo », selon laquelle une structure ou un organe perdu ou abandonné au cours de l'évolution ne saurait réapparaître au sein d'une même lignée d'organismes.
 « En 1893, pour la première fois, le grand paléontologiste belge Louis Dollo a fait ressortir avec force que le développement phylogénétique est irréversible. (...) La signification donnée par Dollo à cette loi est "qu'un organisme ne peut retourner, même partiellement, à un état antérieur déjà réalisé dans la série de ses ancêtres". »
-— Othenio Abel, La loi biologique de l'inertie (1932)[7]
-La loi de Dollo fait l'objet d'une étude de Stephen Jay Gould publiée en 1970. Cette hypothèse, très largement admise, a été remise en cause en 2003 par les travaux de Michael F. Whiting sur la réversion, découverte d'exceptions à la Loi de Dollo grâce à l'étude de certains insectes qui, après avoir perdu leurs ailes, les auraient retrouvées cinquante millions d'années plus tard[8]. Elle a été revalidée au niveau moléculaire en 2009, tirant parti d'études sur des récepteurs glucocorticoide[9].
+— Othenio Abel, La loi biologique de l'inertie (1932)
+La loi de Dollo fait l'objet d'une étude de Stephen Jay Gould publiée en 1970. Cette hypothèse, très largement admise, a été remise en cause en 2003 par les travaux de Michael F. Whiting sur la réversion, découverte d'exceptions à la Loi de Dollo grâce à l'étude de certains insectes qui, après avoir perdu leurs ailes, les auraient retrouvées cinquante millions d'années plus tard. Elle a été revalidée au niveau moléculaire en 2009, tirant parti d'études sur des récepteurs glucocorticoide.
 Par la suite, Louis Dollo poursuit ses travaux sur les fossiles en ajoutant à l'étude des dinosaures et de leur écologie, sur laquelle il est le premier à se pencher, celle des poissons, des reptiles et des oiseaux.
 Il enseigne à l'université de Bruxelles (Institut Solvay) comme professeur de paléontologie à partir de 1909 et reçoit en 1912 la médaille Murchison.
 Il a donné son nom nom aux Dollodons, genre proche voire pour certains un temps assimilés, désormais distingués, des Iguanodons.
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Systématique des dinosaures et autres animaux fossilisés
-Hypsilophodontidae, 1882,
+          <t>Systématique des dinosaures et autres animaux fossilisés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypsilophodontidae, 1882,
 Boulengerina, 1886,
 Cryptodires Eurysternidae, 1886,
 Iguanodontia-Iguanodon bernissartensis, 1888,
@@ -565,9 +584,43 @@
 Macrourinae Cynomacrurus, 1909,
 Palaeoctopodidae, 1912,
 Elapidae,
-Dyrosauridae.
-Publications
-Notes
+Dyrosauridae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Dollo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Dollo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Notes
 Louis Dollo, « Première note sur les dinosauriens de Bernissart », in Bulletin du Musée royal d'histoire naturelle de Belgique, 1: 161-180, Tome 1:1882.
 Louis Dollo, « Deuxième note sur les dinosauriens de Bernissart », in Bulletin du Musée royal d'histoire naturelle de Belgique, [7 p. ; pl.], 8°, Tome 1:1882.
 Louis Dollo, « Troisième note sur les Dinosauriens de Bernissart », in Bulletin du Musée royal d'histoire naturelle de Belgique, [36 p.], 8°, Tome 2:1883
@@ -591,7 +644,7 @@
 Louis Dollo, Sur la morphologie des côtes, Paris, G. Carré, coll. « Bulletin scientifique de la France et de la Belgique », 1892 (BNF 30346748)
 Louis Dollo, Sur la morphologie de la colonne vertébrale, Paris, G. Carré, coll. « Bulletin scientifique de la France et de la Belgique / Travaux du laboratoire de Wimereux », 1892 (BNF 30346747)
 Louis Dollo, La Vie au sein des mers : la faune marine et les grandes profondeurs, les grandes explorations sous marines, les conditions d'existence dans les abysses, la faune abyssale, Paris, J.-B. Baillière et fils, coll. « Bibliothèque scientifique contemporaine », 1891 (BNF 30346750, lire en ligne)
-Louis Dollo, Expédition antarctique belge (1897-1899) ; résultats du voyage du S. Y. Belgica en 1897 - 1898 - 1899 sous le commandement de A. de Gerlache de Gomery; rapports scientifiques : Zoologie : Poissons, Anvers, impr. J.-E. Buschmann,, coll. « Expédition antarctique belge », 1904 (BNF 35669106, lire en ligne)
+Louis Dollo, Expédition antarctique belge (1897-1899) ; résultats du voyage du S. Y. Belgica en 1897 - 1898 - 1899 sous le commandement de A. de Gerlache de Gomery; rapports scientifiques : Zoologie : Poissons, Anvers, impr. J.-E. Buschmann coll. « Expédition antarctique belge », 1904 (BNF 35669106, lire en ligne)
 Louis Dollo, La Paléontologie éthologique, 1910
 Traductions par Louis Dollo
 John Tyndall, Les Microbes (1882)
@@ -606,31 +659,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Louis_Dollo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis_Dollo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biographies de Dollo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Othenio Abel, Louis Dollo, Zur Vollending seines seibzigsten Lebensjahare ; Paleobiologia 1:7-12 (1928)
 Othenio Abel, “Louis Dollo. 7 Dezember 1857–19 April 1931. Ein Rückblick und Abschied”, in: Palaeobiologica, 4. 321–344 (1931).
